--- a/OperationalApplicationSystem/src/main/webapp/templet/CustomsImportAndExport.xlsx
+++ b/OperationalApplicationSystem/src/main/webapp/templet/CustomsImportAndExport.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AA849-4173-4EBC-9C26-9F0C03E6E6E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/JAVA/OperationalApplicationSystem/OperationalApplicationSystem/src/main/webapp/templet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>N265DP47</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>料件序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,26 +92,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>不能为空值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YD</t>
-  </si>
-  <si>
-    <t>STL LOCK NUT 1 3/8" 8 UN N265DP47, ASTM A194 Gr2H</t>
-  </si>
-  <si>
-    <t>EA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,34 +145,13 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,24 +170,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CE670A21-5878-49CC-BC30-62277D5432A7}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{A9E6364E-8ED6-4D0E-93E6-DBE015DE741F}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,98 +456,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A1DA73-8FA3-4722-AD8E-D47C3BB8773B}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>600410</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <f>I2*G2</f>
-        <v>100</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/OperationalApplicationSystem/src/main/webapp/templet/CustomsImportAndExport.xlsx
+++ b/OperationalApplicationSystem/src/main/webapp/templet/CustomsImportAndExport.xlsx
@@ -1,72 +1,242 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/JAVA/OperationalApplicationSystem/OperationalApplicationSystem/src/main/webapp/templet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1321632-AEBA-49F0-BDCA-1FC80F8E95B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lynn Wu</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A15F7434-4F5D-43BB-AF27-865B6E56CD4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+该栏位通过序号mapping料件表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C7A1EEE0-3DCD-4D40-95F5-669687188A0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+该栏位通过序号mapping料件表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9DF6BD2E-BF10-4906-AC6C-1A71B5A37A55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+新增列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D16A4B1F-BD24-4ADD-B85E-C4259297FE22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+新增列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{07B62154-7A62-43AB-B4E5-0FAB6CED2B98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+新增列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{7FE703C3-90B9-48A3-BE8F-FDED77B2F9EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+新增列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F1A02731-1829-4D7A-A1A1-521BC9137FEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lynn Wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+新增列</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>料件序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报关进料日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Or Ty</t>
-  </si>
-  <si>
-    <t>Order Number</t>
-  </si>
-  <si>
-    <t>Cimtas Long Item No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Long Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>NET WEIGHT (KG)</t>
+  </si>
+  <si>
+    <t>Q'TY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit price
+USD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount
+USD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -78,66 +248,218 @@
       </rPr>
       <t>操作员</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Or Ty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Number</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cimtas Code</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="等线"/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>料日期</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIT PRICE           </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOUNT     </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> name     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中文</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品名</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规格</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>操作日期</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+  </numFmts>
+  <fonts count="17">
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -145,16 +467,68 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,24 +536,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+  <cellStyles count="10">
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="千位分隔[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="通貨_2011.3.23_1st Shipment_ROTEM_Packing_list" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,7 +646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -205,44 +656,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -270,14 +721,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -305,6 +773,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -316,208 +801,257 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4842BF32-7F2A-4461-928F-591BAC8E8E28}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="7" max="7" width="73.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="45">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5">
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OperationalApplicationSystem/src/main/webapp/templet/CustomsImportAndExport.xlsx
+++ b/OperationalApplicationSystem/src/main/webapp/templet/CustomsImportAndExport.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/JAVA/OperationalApplicationSystem/OperationalApplicationSystem/src/main/webapp/templet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1321632-AEBA-49F0-BDCA-1FC80F8E95B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="2880" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lynn Wu</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A15F7434-4F5D-43BB-AF27-865B6E56CD4F}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C7A1EEE0-3DCD-4D40-95F5-669687188A0F}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9DF6BD2E-BF10-4906-AC6C-1A71B5A37A55}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D16A4B1F-BD24-4ADD-B85E-C4259297FE22}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{07B62154-7A62-43AB-B4E5-0FAB6CED2B98}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{7FE703C3-90B9-48A3-BE8F-FDED77B2F9EE}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F1A02731-1829-4D7A-A1A1-521BC9137FEF}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NET WEIGHT (KG)</t>
   </si>
@@ -268,7 +275,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>报</t>
@@ -288,7 +295,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>进</t>
@@ -385,15 +392,25 @@
     <t>备案号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>报关单号</t>
+    <rPh sb="0" eb="1">
+      <t>bao'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -403,7 +420,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -437,7 +454,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -466,13 +483,6 @@
       <sz val="10"/>
       <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -538,13 +548,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -557,7 +567,7 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,28 +602,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,16 +631,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2" xfId="4"/>
+    <cellStyle name="標準 2 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準 3 2" xfId="7"/>
+    <cellStyle name="標準 4" xfId="8"/>
+    <cellStyle name="標準 5" xfId="9"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="桁区切り 2" xfId="3"/>
     <cellStyle name="千位分隔[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="通貨_2011.3.23_1st Shipment_ROTEM_Packing_list" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="通貨_2011.3.23_1st Shipment_ROTEM_Packing_list" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -688,12 +698,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -721,31 +731,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -773,23 +766,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -965,89 +941,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4842BF32-7F2A-4461-928F-591BAC8E8E28}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="7" max="7" width="73.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="73.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="45">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5">
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
